--- a/config_portal/examples/spatial-map-data.xlsx
+++ b/config_portal/examples/spatial-map-data.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/HuBMAP-pancreas-data-explorer/HuBMAP-pancreas-data-explorer/config_portal/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B377FD0A-D80C-384C-A0B6-9FB8F3A4B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2481222-B7E5-0545-8069-182AB6A67798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2020" windowWidth="26780" windowHeight="17480" activeTab="5" xr2:uid="{3B40F415-95FD-B343-9558-6EE9E6D8507C}"/>
+    <workbookView xWindow="480" yWindow="1160" windowWidth="26780" windowHeight="17480" activeTab="4" xr2:uid="{3B40F415-95FD-B343-9558-6EE9E6D8507C}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="7" r:id="rId1"/>
     <sheet name="points_data" sheetId="1" r:id="rId2"/>
     <sheet name="value_ranges" sheetId="3" r:id="rId3"/>
-    <sheet name="value_labels" sheetId="4" r:id="rId4"/>
-    <sheet name="category_labels" sheetId="6" r:id="rId5"/>
-    <sheet name="vol_measurements" sheetId="5" r:id="rId6"/>
+    <sheet name="category_labels" sheetId="6" r:id="rId4"/>
+    <sheet name="vol_measurements" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="37">
   <si>
     <t>Block ID</t>
   </si>
@@ -91,27 +93,6 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Value4</t>
-  </si>
-  <si>
-    <t>Value5</t>
-  </si>
-  <si>
-    <t>Value6</t>
-  </si>
-  <si>
-    <t>Value7</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -142,12 +123,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>Label (Only True)</t>
   </si>
   <si>
@@ -169,30 +144,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Link1Label</t>
-  </si>
-  <si>
-    <t>Link1Desc</t>
-  </si>
-  <si>
-    <t>Link2Label</t>
-  </si>
-  <si>
-    <t>Link2Desc</t>
-  </si>
-  <si>
-    <t>Link3Label</t>
-  </si>
-  <si>
-    <t>Link3Desc</t>
-  </si>
-  <si>
-    <t>Link4Label</t>
-  </si>
-  <si>
-    <t>Link4Desc</t>
-  </si>
-  <si>
     <t>Spatial Proteome Map of a Single Islet Microenvironment from Pancreas Block P1-20C</t>
   </si>
   <si>
@@ -202,49 +153,7 @@
     <t>P1-20C</t>
   </si>
   <si>
-    <t>Download .xlsx</t>
-  </si>
-  <si>
-    <t>Download the data collected in this study as an Excel spreadsheet</t>
-  </si>
-  <si>
-    <t>Download the data collected in this study as a VTK file</t>
-  </si>
-  <si>
-    <t>Download .vti</t>
-  </si>
-  <si>
-    <t>Download `ili spreadsheet</t>
-  </si>
-  <si>
-    <t>If you would like to visualize this data using the `ili spatial data mapping tool, open the `ili website at https://ili.ucsd.edu/, select 'Volume', and drag and drop the following two files into the viewer. Then click on the '3D' tab, and choose 'Lego' for Render Mode.</t>
-  </si>
-  <si>
-    <t>Download `ili volume file</t>
-  </si>
-  <si>
-    <t>Link1Name</t>
-  </si>
-  <si>
-    <t>Link2Name</t>
-  </si>
-  <si>
-    <t>Link3Name</t>
-  </si>
-  <si>
-    <t>Link4Name</t>
-  </si>
-  <si>
-    <t>HubMAP_TMC_p1_20C_3D_protINT_May8_sorted.xlsx</t>
-  </si>
-  <si>
-    <t>HubMAP_TMC_p1_20C_3D_protINT_May8_sorted.vti</t>
-  </si>
-  <si>
-    <t>HuBMAP_ili_data10-11-24.csv</t>
-  </si>
-  <si>
-    <t>ili_vol_template.nrrd</t>
+    <t>Row Label</t>
   </si>
 </sst>
 </file>
@@ -296,11 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -326,6 +234,284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="meta"/>
+      <sheetName val="points_data"/>
+      <sheetName val="value_ranges"/>
+      <sheetName val="category_labels"/>
+      <sheetName val="vol_measurements"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="I2">
+            <v>0.89945299999999995</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K2">
+            <v>4.7114700000000002E-2</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M2">
+            <v>-0.37878099999999998</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O2">
+            <v>0.65295499999999995</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3">
+            <v>0.78504700000000005</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K3">
+            <v>0.262513</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M3">
+            <v>-0.79841600000000001</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O3">
+            <v>0.59423199999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>-3.4460900000000003E-2</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K4">
+            <v>0.47597200000000001</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M4">
+            <v>0.62892099999999995</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O4">
+            <v>0.22109899999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>0.98594199999999999</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K5">
+            <v>-0.31084099999999998</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M5">
+            <v>-0.65859999999999996</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O5">
+            <v>0.47667199999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0.75704300000000002</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K6">
+            <v>3.7986600000000002E-2</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M6">
+            <v>-1.05067</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O6">
+            <v>0.56734499999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>0.15909499999999999</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K7">
+            <v>0.16854</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M7">
+            <v>-0.34618500000000002</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O7">
+            <v>0.37839200000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>0.62249600000000005</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K8">
+            <v>-9.5363100000000006E-2</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M8">
+            <v>0.83342899999999998</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O8">
+            <v>0.72690100000000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>0.84384099999999995</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K9">
+            <v>-0.13370000000000001</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M9">
+            <v>-0.36838500000000002</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O9">
+            <v>-2.8549399999999999E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>0.80501999999999996</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K10">
+            <v>-0.75164299999999995</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M10">
+            <v>-0.78446099999999996</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O10">
+            <v>0.88500299999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>0.65469500000000003</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K11">
+            <v>0.27332800000000002</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M11">
+            <v>-0.135355</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O11">
+            <v>0.79579599999999995</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>0.88124899999999995</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="K12">
+            <v>-0.64325699999999997</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="M12">
+            <v>-0.78810999999999998</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="O12">
+            <v>0.77651999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,114 +834,57 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.83203125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>67</v>
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -768,59 +897,56 @@
   <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -9293,103 +9419,106 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <f>MIN(points_data!I2:I12)</f>
+        <f>MIN([1]points_data!I2:I12)</f>
         <v>-3.4460900000000003E-2</v>
       </c>
       <c r="C2">
-        <f>MIN(points_data!J2:J12)</f>
+        <f>MIN([1]points_data!J2:J12)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>MIN(points_data!K2:K12)</f>
+        <f>MIN([1]points_data!K2:K12)</f>
         <v>-0.75164299999999995</v>
       </c>
       <c r="E2">
-        <f>MIN(points_data!L2:L12)</f>
+        <f>MIN([1]points_data!L2:L12)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>MIN(points_data!M2:M12)</f>
+        <f>MIN([1]points_data!M2:M12)</f>
         <v>-1.05067</v>
       </c>
       <c r="G2">
-        <f>MIN(points_data!N2:N12)</f>
+        <f>MIN([1]points_data!N2:N12)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>MIN(points_data!O2:O12)</f>
+        <f>MIN([1]points_data!O2:O12)</f>
         <v>-2.8549399999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <f>MAX(points_data!I2:I12)</f>
+        <f>MAX([1]points_data!I2:I12)</f>
         <v>0.98594199999999999</v>
       </c>
       <c r="C3">
-        <f>MAX(points_data!J2:J12)</f>
+        <f>MAX([1]points_data!J2:J12)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>MAX(points_data!K2:K12)</f>
+        <f>MAX([1]points_data!K2:K12)</f>
         <v>0.47597200000000001</v>
       </c>
       <c r="E3">
-        <f>MAX(points_data!L2:L12)</f>
+        <f>MAX([1]points_data!L2:L12)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>MAX(points_data!M2:M12)</f>
+        <f>MAX([1]points_data!M2:M12)</f>
         <v>0.83342899999999998</v>
       </c>
       <c r="G3">
-        <f>MAX(points_data!N2:N12)</f>
+        <f>MAX([1]points_data!N2:N12)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>MAX(points_data!O2:O12)</f>
+        <f>MAX([1]points_data!O2:O12)</f>
         <v>0.88500299999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -9420,87 +9549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DB7184-31F7-B14A-814E-1775A3EA4AEF}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C67829-8039-9C4D-B707-BF3E1658FD2B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -9514,71 +9564,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B0FB73-2F3E-3A4E-B78C-9FBAB6309316}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
